--- a/target/classes/Excel/ValidCredentials.xlsx
+++ b/target/classes/Excel/ValidCredentials.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareTesting_Course\Eclipse_Prog\GroceryApplication\src\main\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoftwareTesting_Course\Eclipse_Prog\GroceryApplicationCopy\src\main\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F85E6A2-711A-4433-874C-5DA2F725D424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B864B18-0E01-41EE-A58B-A52D183667E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="1845" windowWidth="14775" windowHeight="13635" xr2:uid="{8608A643-79A2-4B4E-A44C-27FF75FF2A6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t xml:space="preserve">UserName </t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>admininvalid</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C82481DA-BCC2-4809-98F6-ACA98DB53FE8}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +448,22 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
